--- a/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 1,85</t>
+          <t>-13,69; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 28,63</t>
+          <t>-3,23; 28,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 1,85</t>
+          <t>-13,69; 1,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 28,63</t>
+          <t>-3,23; 28,05</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 7,95</t>
+          <t>-45,14; 7,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 121,18</t>
+          <t>-10,9; 114,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 7,95</t>
+          <t>-45,14; 7,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 121,18</t>
+          <t>-10,9; 114,0</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -2,31</t>
+          <t>-14,55; -3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,96</t>
+          <t>-9,85; 6,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -2,31</t>
+          <t>-14,55; -3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,96</t>
+          <t>-9,85; 6,19</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -8,57</t>
+          <t>-44,1; -12,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 23,52</t>
+          <t>-31,55; 22,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -8,57</t>
+          <t>-44,1; -12,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 23,52</t>
+          <t>-31,55; 22,58</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -3,27</t>
+          <t>-12,7; -2,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 2,15</t>
+          <t>-8,79; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -3,27</t>
+          <t>-12,7; -2,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 2,15</t>
+          <t>-8,79; 3,05</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -13,26</t>
+          <t>-40,71; -9,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 8,69</t>
+          <t>-28,51; 11,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -13,26</t>
+          <t>-40,71; -9,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 8,69</t>
+          <t>-28,51; 11,92</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -7,42</t>
+          <t>-17,91; -7,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,72</t>
+          <t>-0,97; 9,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -7,42</t>
+          <t>-17,91; -7,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,72</t>
+          <t>-0,97; 9,95</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -31,52</t>
+          <t>-60,19; -30,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 46,05</t>
+          <t>-2,86; 42,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -31,52</t>
+          <t>-60,19; -30,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 46,05</t>
+          <t>-2,86; 42,07</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 1,12</t>
+          <t>-9,96; 1,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,24</t>
+          <t>-0,4; 9,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 1,12</t>
+          <t>-9,96; 1,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,24</t>
+          <t>-0,4; 9,47</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 9,05</t>
+          <t>-50,38; 8,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 76,49</t>
+          <t>-1,9; 74,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 9,05</t>
+          <t>-50,38; 8,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 76,49</t>
+          <t>-1,9; 74,61</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -3,41</t>
+          <t>-11,78; -3,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,51</t>
+          <t>-3,57; 4,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -3,41</t>
+          <t>-11,78; -3,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,51</t>
+          <t>-3,57; 4,14</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -28,44</t>
+          <t>-71,77; -26,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 42,44</t>
+          <t>-21,48; 37,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -28,44</t>
+          <t>-71,77; -26,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 42,44</t>
+          <t>-21,48; 37,98</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 1,68</t>
+          <t>-13,5; 2,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 28,05</t>
+          <t>-1,41; 27,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 1,68</t>
+          <t>-13,5; 2,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 28,05</t>
+          <t>-1,41; 27,51</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 7,19</t>
+          <t>-45,33; 10,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 114,0</t>
+          <t>-3,98; 114,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 7,19</t>
+          <t>-45,33; 10,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 114,0</t>
+          <t>-3,98; 114,06</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -3,23</t>
+          <t>-14,23; -2,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 6,19</t>
+          <t>-9,97; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -3,23</t>
+          <t>-14,23; -2,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 6,19</t>
+          <t>-9,97; 5,94</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -12,3</t>
+          <t>-42,92; -8,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 22,58</t>
+          <t>-31,22; 20,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -12,3</t>
+          <t>-42,92; -8,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 22,58</t>
+          <t>-31,22; 20,87</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -2,58</t>
+          <t>-13,42; -3,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 3,05</t>
+          <t>-7,98; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -2,58</t>
+          <t>-13,42; -3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 3,05</t>
+          <t>-7,98; 2,63</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,71; -9,93</t>
+          <t>-43,16; -12,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 11,92</t>
+          <t>-26,12; 9,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,71; -9,93</t>
+          <t>-43,16; -12,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 11,92</t>
+          <t>-26,12; 9,6</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -7,28</t>
+          <t>-17,77; -7,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,95</t>
+          <t>-0,87; 10,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -7,28</t>
+          <t>-17,77; -7,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,95</t>
+          <t>-0,87; 10,36</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,19; -30,93</t>
+          <t>-58,87; -31,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 42,07</t>
+          <t>-3,28; 43,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,19; -30,93</t>
+          <t>-58,87; -31,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 42,07</t>
+          <t>-3,28; 43,02</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 1,06</t>
+          <t>-9,47; 0,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 9,47</t>
+          <t>-0,53; 9,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 1,06</t>
+          <t>-9,47; 0,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 9,47</t>
+          <t>-0,53; 9,35</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 8,61</t>
+          <t>-48,14; 7,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 74,61</t>
+          <t>-2,34; 72,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 8,61</t>
+          <t>-48,14; 7,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 74,61</t>
+          <t>-2,34; 72,1</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -3,12</t>
+          <t>-11,55; -3,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,14</t>
+          <t>-3,4; 4,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -3,12</t>
+          <t>-11,55; -3,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,14</t>
+          <t>-3,4; 4,71</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,77; -26,76</t>
+          <t>-71,44; -27,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 37,98</t>
+          <t>-20,23; 42,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-71,77; -26,76</t>
+          <t>-71,44; -27,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 37,98</t>
+          <t>-20,23; 42,87</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>12,41</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 27,51</t>
+          <t>-1,66; 27,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 27,51</t>
+          <t>-1,66; 27,16</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>46,04%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 114,06</t>
+          <t>-4,69; 113,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 114,06</t>
+          <t>-4,69; 113,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-7,33</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 5,94</t>
+          <t>-20,65; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 5,94</t>
+          <t>-20,65; 2,89</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-24,65%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 20,87</t>
+          <t>-63,09; 9,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 20,87</t>
+          <t>-63,09; 9,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,63</t>
+          <t>-7,73; 2,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,63</t>
+          <t>-7,73; 2,97</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>-8,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>-8,95%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 9,6</t>
+          <t>-25,5; 10,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 9,6</t>
+          <t>-25,5; 10,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,36</t>
+          <t>-3,83; 9,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,36</t>
+          <t>-3,83; 9,22</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 43,02</t>
+          <t>-12,32; 38,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 43,02</t>
+          <t>-12,32; 38,08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,68</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 9,35</t>
+          <t>-0,32; 9,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 9,35</t>
+          <t>-0,32; 9,48</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>28,34%</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 72,1</t>
+          <t>-1,5; 73,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 72,1</t>
+          <t>-1,5; 73,61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -3,55</t>
+          <t>-12,1; -0,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,71</t>
+          <t>-3,82; 7,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -3,55</t>
+          <t>-12,1; -0,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,71</t>
+          <t>-3,82; 7,59</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-54,7%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-54,7%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>11,91%</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,44; -27,37</t>
+          <t>-64,32; 1,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 42,87</t>
+          <t>-21,01; 64,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-71,44; -27,37</t>
+          <t>-64,32; 1,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 42,87</t>
+          <t>-21,01; 64,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-14,9; -4,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,36</t>
+          <t>-5,69; 5,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-14,9; -4,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,36</t>
+          <t>-5,69; 5,34</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>-82,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>-82,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1661,34 +1661,191 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
+          <t>-95,34; -40,81</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-36,73; 65,47</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-95,34; -40,81</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-36,73; 65,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; -6,37</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 1,86</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; -6,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 1,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-35,36%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-3,07%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-35,36%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
           <t>-42,36; -27,78</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 10,63</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 8,0</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-42,36; -27,78</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 10,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 8,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Edad-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 2,55</t>
+          <t>-14,02; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 27,16</t>
+          <t>-1,53; 28,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 2,55</t>
+          <t>-14,02; 2,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 27,16</t>
+          <t>-1,53; 28,93</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 10,95</t>
+          <t>-45,1; 9,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 113,51</t>
+          <t>-6,2; 122,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 10,95</t>
+          <t>-45,1; 9,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 113,51</t>
+          <t>-6,2; 122,97</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -2,92</t>
+          <t>-13,7; -2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 2,89</t>
+          <t>-21,47; 2,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -2,92</t>
+          <t>-13,7; -2,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 2,89</t>
+          <t>-21,47; 2,97</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -8,92</t>
+          <t>-42,24; -10,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 9,95</t>
+          <t>-65,49; 9,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -8,92</t>
+          <t>-42,24; -10,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 9,95</t>
+          <t>-65,49; 9,88</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -3,35</t>
+          <t>-13,54; -3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,97</t>
+          <t>-7,84; 2,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -3,35</t>
+          <t>-13,54; -3,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,97</t>
+          <t>-7,84; 2,81</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -12,59</t>
+          <t>-43,24; -11,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 10,91</t>
+          <t>-25,38; 10,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -12,59</t>
+          <t>-43,24; -11,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 10,91</t>
+          <t>-25,38; 10,95</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -7,45</t>
+          <t>-17,25; -7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 9,22</t>
+          <t>-5,15; 9,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -7,45</t>
+          <t>-17,25; -7,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 9,22</t>
+          <t>-5,15; 9,38</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -31,12</t>
+          <t>-58,52; -28,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 38,08</t>
+          <t>-15,89; 38,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -31,12</t>
+          <t>-58,52; -28,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 38,08</t>
+          <t>-15,89; 38,57</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,97</t>
+          <t>-9,3; 1,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,48</t>
+          <t>-0,73; 9,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,97</t>
+          <t>-9,3; 1,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,48</t>
+          <t>-0,73; 9,6</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 7,4</t>
+          <t>-48,93; 13,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 73,61</t>
+          <t>-3,78; 68,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 7,4</t>
+          <t>-48,93; 13,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 73,61</t>
+          <t>-3,78; 68,26</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -0,07</t>
+          <t>-11,93; 0,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,59</t>
+          <t>-4,59; 6,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -0,07</t>
+          <t>-11,93; 0,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,59</t>
+          <t>-4,59; 6,82</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 1,69</t>
+          <t>-62,38; 4,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 64,86</t>
+          <t>-23,96; 60,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 1,69</t>
+          <t>-62,38; 4,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 64,86</t>
+          <t>-23,96; 60,48</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -4,48</t>
+          <t>-15,16; -4,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,34</t>
+          <t>-5,96; 5,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -4,48</t>
+          <t>-15,16; -4,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,34</t>
+          <t>-5,96; 5,4</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-95,34; -40,81</t>
+          <t>-95,96; -42,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 65,47</t>
+          <t>-36,98; 64,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-95,34; -40,81</t>
+          <t>-95,96; -42,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 65,47</t>
+          <t>-36,98; 64,88</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
     </row>
